--- a/key/vpn_key/VPN_securityKey_user_information_20190909.xlsx
+++ b/key/vpn_key/VPN_securityKey_user_information_20190909.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esl01298shr\Philippines Project\フィリピンＭＦＩプロジェクト\SourceTree\Repo\04_環境、インフラ\VPNキー作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\WebCoop1.0\webcoop_other\key\vpn_key\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB863A6D-D10F-4BA0-95A7-9257FF2E3971}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="2910" windowWidth="19935" windowHeight="5280" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VPN key list" sheetId="1" r:id="rId1"/>
     <sheet name="Request" sheetId="2" r:id="rId2"/>
+    <sheet name="USEFFEC" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="232">
   <si>
     <t>VPN key list</t>
   </si>
@@ -746,17 +749,65 @@
   <si>
     <t>crgmpc_franz</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>USEMBASSY</t>
+  </si>
+  <si>
+    <t>Server name</t>
+  </si>
+  <si>
+    <t>usemb_client3</t>
+  </si>
+  <si>
+    <t>usemb_client1</t>
+  </si>
+  <si>
+    <t>usemb_client2</t>
+  </si>
+  <si>
+    <t>usemb_client4</t>
+  </si>
+  <si>
+    <t>usemb_client5</t>
+  </si>
+  <si>
+    <t>usemb_client6</t>
+  </si>
+  <si>
+    <t>USEMBASSY_CLIENT6.ovpn</t>
+  </si>
+  <si>
+    <t>USEMBASSY_CLIENT1.ovpn</t>
+  </si>
+  <si>
+    <t>USEMBASSY_CLIENT2.ovpn</t>
+  </si>
+  <si>
+    <t>USEMBASSY_CLIENT3.ovpn</t>
+  </si>
+  <si>
+    <t>USEMBASSY_CLIENT4.ovpn</t>
+  </si>
+  <si>
+    <t>USEMBASSY_CLIENT5.ovpn</t>
+  </si>
+  <si>
+    <t>Additional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="d/mmm"/>
-    <numFmt numFmtId="177" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="164" formatCode="d/mmm"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -829,7 +880,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -998,13 +1049,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,7 +1109,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1110,7 +1172,7 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
@@ -1149,9 +1211,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1251,7 +1325,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1360,7 +1440,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1435,6 +1515,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1470,6 +1567,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1645,16 +1759,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1350" topLeftCell="A39" activePane="bottomLeft"/>
-      <selection activeCell="A37" sqref="A37"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1350" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="13.125" customWidth="1"/>
@@ -1666,12 +1780,12 @@
     <col min="9" max="1025" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1697,7 +1811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1721,7 +1835,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -1743,7 +1857,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
@@ -1765,7 +1879,7 @@
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +1903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -1813,7 +1927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="27">
       <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
@@ -1837,7 +1951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
@@ -1859,7 +1973,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
@@ -1881,7 +1995,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
@@ -1903,7 +2017,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
@@ -1925,7 +2039,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
@@ -1947,7 +2061,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
@@ -1967,7 +2081,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1987,7 +2101,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
         <v>33</v>
       </c>
@@ -2009,7 +2123,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
@@ -2031,7 +2145,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
         <v>33</v>
       </c>
@@ -2053,7 +2167,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
         <v>33</v>
       </c>
@@ -2075,7 +2189,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
         <v>33</v>
       </c>
@@ -2097,7 +2211,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
@@ -2117,7 +2231,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
@@ -2139,7 +2253,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
         <v>51</v>
       </c>
@@ -2161,7 +2275,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" s="11" t="s">
         <v>51</v>
       </c>
@@ -2183,7 +2297,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
         <v>51</v>
       </c>
@@ -2205,7 +2319,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
         <v>98</v>
       </c>
@@ -2227,7 +2341,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
         <v>58</v>
       </c>
@@ -2249,7 +2363,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="11" t="s">
         <v>58</v>
       </c>
@@ -2271,7 +2385,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="11" t="s">
         <v>58</v>
       </c>
@@ -2293,7 +2407,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
         <v>58</v>
       </c>
@@ -2317,7 +2431,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
         <v>58</v>
       </c>
@@ -2341,7 +2455,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
         <v>58</v>
       </c>
@@ -2365,7 +2479,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8">
       <c r="A34" s="11" t="s">
         <v>67</v>
       </c>
@@ -2389,7 +2503,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
         <v>71</v>
       </c>
@@ -2413,7 +2527,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
         <v>74</v>
       </c>
@@ -2437,7 +2551,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8">
       <c r="A37" s="11" t="s">
         <v>74</v>
       </c>
@@ -2461,7 +2575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8">
       <c r="A38" s="11" t="s">
         <v>74</v>
       </c>
@@ -2485,7 +2599,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8">
       <c r="A39" s="20" t="s">
         <v>81</v>
       </c>
@@ -2507,7 +2621,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
         <v>144</v>
       </c>
@@ -2531,7 +2645,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
         <v>144</v>
       </c>
@@ -2555,7 +2669,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8">
       <c r="A42" s="11" t="s">
         <v>144</v>
       </c>
@@ -2579,7 +2693,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8">
       <c r="A43" s="11" t="s">
         <v>144</v>
       </c>
@@ -2603,7 +2717,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8">
       <c r="A44" s="11" t="s">
         <v>144</v>
       </c>
@@ -2627,7 +2741,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8">
       <c r="A45" s="46" t="s">
         <v>171</v>
       </c>
@@ -2649,7 +2763,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8">
       <c r="A46" s="46" t="s">
         <v>172</v>
       </c>
@@ -2671,7 +2785,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8">
       <c r="A47" s="46" t="s">
         <v>173</v>
       </c>
@@ -2693,7 +2807,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8">
       <c r="A48" s="46" t="s">
         <v>174</v>
       </c>
@@ -2715,7 +2829,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13">
       <c r="A49" s="46" t="s">
         <v>175</v>
       </c>
@@ -2737,7 +2851,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13">
       <c r="A50" s="46" t="s">
         <v>198</v>
       </c>
@@ -2771,7 +2885,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13">
       <c r="A51" s="46" t="s">
         <v>203</v>
       </c>
@@ -2805,7 +2919,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13">
       <c r="A52" s="46" t="s">
         <v>206</v>
       </c>
@@ -2848,14 +2962,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:E29"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
@@ -2870,37 +2984,37 @@
     <col min="14" max="1026" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="B2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="B3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="B4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="B5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="B6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="B8" s="21" t="s">
         <v>85</v>
       </c>
@@ -2921,7 +3035,7 @@
       </c>
       <c r="L8" s="27"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="B9" s="28" t="s">
         <v>88</v>
       </c>
@@ -2954,7 +3068,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="B10" s="31">
         <v>43250</v>
       </c>
@@ -2990,7 +3104,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="B11" s="31">
         <v>43349</v>
       </c>
@@ -3026,7 +3140,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="B12" s="31">
         <v>43349</v>
       </c>
@@ -3062,7 +3176,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="B13" s="31">
         <v>43349</v>
       </c>
@@ -3098,7 +3212,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="B14" s="31">
         <v>43357</v>
       </c>
@@ -3134,7 +3248,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" s="39" customFormat="1">
       <c r="B15" s="31">
         <v>43370</v>
       </c>
@@ -3168,7 +3282,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" s="39" customFormat="1">
       <c r="B16" s="31">
         <v>43370</v>
       </c>
@@ -3202,7 +3316,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" s="39" customFormat="1">
       <c r="B17" s="31">
         <v>43472</v>
       </c>
@@ -3238,7 +3352,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:13" s="39" customFormat="1">
       <c r="B18" s="31">
         <v>43472</v>
       </c>
@@ -3274,7 +3388,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" s="39" customFormat="1">
       <c r="B19" s="34">
         <v>43612</v>
       </c>
@@ -3310,7 +3424,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" s="39" customFormat="1">
       <c r="B20" s="34">
         <v>43612</v>
       </c>
@@ -3346,7 +3460,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" s="39" customFormat="1">
       <c r="B21" s="34">
         <v>43612</v>
       </c>
@@ -3382,7 +3496,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" s="39" customFormat="1">
       <c r="B22" s="34">
         <v>43658</v>
       </c>
@@ -3420,7 +3534,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13" s="39" customFormat="1">
       <c r="B23" s="34">
         <v>43658</v>
       </c>
@@ -3458,7 +3572,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" s="39" customFormat="1">
       <c r="B24" s="34">
         <v>43658</v>
       </c>
@@ -3496,7 +3610,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" s="39" customFormat="1">
       <c r="B25" s="34">
         <v>43658</v>
       </c>
@@ -3534,7 +3648,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" s="39" customFormat="1">
       <c r="B26" s="34">
         <v>43658</v>
       </c>
@@ -3572,7 +3686,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" s="39" customFormat="1">
       <c r="B27" s="42">
         <v>43711</v>
       </c>
@@ -3610,7 +3724,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13">
       <c r="B28" s="42">
         <v>43711</v>
       </c>
@@ -3648,7 +3762,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:13">
       <c r="B29" s="42">
         <v>43711</v>
       </c>
@@ -3689,7 +3803,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D29" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Create,Disable"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3697,4 +3811,471 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F917352-D3E0-4206-B18C-71669C87ABB3}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="48"/>
+      <c r="L1" s="46" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="46"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="31">
+        <v>44019</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="31">
+        <v>44019</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="K3" s="31">
+        <v>44019</v>
+      </c>
+      <c r="L3" s="51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="31">
+        <v>44019</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="I4" s="31">
+        <v>44019</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="31">
+        <v>44019</v>
+      </c>
+      <c r="L4" s="51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="31">
+        <v>44019</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="31">
+        <v>44019</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="K5" s="31">
+        <v>44019</v>
+      </c>
+      <c r="L5" s="51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="31">
+        <v>44019</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="I6" s="31">
+        <v>44019</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="K6" s="31">
+        <v>44019</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="31">
+        <v>44019</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="I7" s="31">
+        <v>44019</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="31">
+        <v>44019</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="31">
+        <v>44019</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="I8" s="31">
+        <v>44019</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="K8" s="31">
+        <v>44019</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="51"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="51"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="51"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="34"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="34"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="51"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="34"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="51"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="34"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="51"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="34"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="51"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="34"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="34"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="34"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="51"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C19" xr:uid="{EADB46C3-07A1-4213-848B-F0706740F64B}">
+      <formula1>"Create,Disable"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C5D871-DF68-4292-AFB8-C2B2EBE77CB6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>